--- a/MAO/5damaty_TODO_list.xlsx
+++ b/MAO/5damaty_TODO_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Create githup repo</t>
   </si>
@@ -46,17 +46,26 @@
   </si>
   <si>
     <t>Start to plan for phase 2 and iphone implemenation</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,6 +98,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -167,6 +181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,6 +216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,44 +392,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.75" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -424,35 +449,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.75" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -463,12 +488,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
